--- a/编码进度表—周青山 .xlsx
+++ b/编码进度表—周青山 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="周青山 " sheetId="11" r:id="rId1"/>
@@ -1101,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1253,8 +1253,12 @@
         <v>43640</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="6">
+        <v>43640</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.8</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
     </row>
@@ -1268,7 +1272,9 @@
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7">
+        <v>0.5</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="14"/>
     </row>
@@ -1282,7 +1288,9 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7">
+        <v>0.2</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
@@ -2404,7 +2412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8:F8"/>
     </sheetView>
   </sheetViews>

--- a/编码进度表—周青山 .xlsx
+++ b/编码进度表—周青山 .xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="24">
   <si>
     <t>整体模块</t>
   </si>
@@ -104,6 +104,10 @@
   </si>
   <si>
     <t>进度控制表-旅游网的设计与实现</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -662,7 +666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -731,6 +735,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1101,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="H8" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1260,7 +1267,9 @@
         <v>0.8</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="15"/>
+      <c r="H9" s="25" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>

--- a/编码进度表—周青山 .xlsx
+++ b/编码进度表—周青山 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\hgkj_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C87431-1498-42D5-8A79-FB4720992381}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8FFE73-50F7-4927-91DE-EE806ABE8518}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1680" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1680" windowWidth="21600" windowHeight="11385" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周青山 " sheetId="11" r:id="rId1"/>
@@ -621,24 +621,6 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -685,6 +667,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1064,253 +1064,253 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>43647</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>43648</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="3"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>43649</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="1"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>43650</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="6">
         <v>43639</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
         <v>43639</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="7">
         <v>0.8</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>43640</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
         <v>43640</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="7">
         <v>0.8</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="19" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>43641</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7">
         <v>0.5</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="18"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>43642</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7">
         <v>0.2</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="20"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="15">
         <v>43643</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="15">
         <v>43644</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="15">
         <v>43645</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="15">
         <v>43646</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1331,242 +1331,242 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>43647</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>43648</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="3"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>43649</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="1"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>43650</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="6">
         <v>43639</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="18"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>43640</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="19"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>43641</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="18"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>43642</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="20"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="15">
         <v>43643</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="15">
         <v>43644</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="15">
         <v>43645</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="15">
         <v>43646</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1587,260 +1587,260 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>43647</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>43648</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="3"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>43649</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="1"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>43650</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="6">
         <v>43639</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="6">
         <v>43639</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="6">
         <v>43639</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>43640</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="6">
         <v>43640</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="6">
         <v>43640</v>
       </c>
-      <c r="F9" s="13">
-        <v>1</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="19"/>
+      <c r="F9" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>43641</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="6">
         <v>43641</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="6">
         <v>43641</v>
       </c>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="18"/>
+      <c r="F10" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>43642</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="20"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="15">
         <v>43643</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="15">
         <v>43644</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="15">
         <v>43645</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="15">
         <v>43646</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1852,7 +1852,7 @@
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1867,244 +1867,244 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>43647</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>43648</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="3"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>43649</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="1"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>43650</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="6">
         <v>43639</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
         <v>43639</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="7">
         <v>0.7</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>43640</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
         <v>43640</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="7">
         <v>0.8</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>43641</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="18"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>43642</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="20"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="15">
         <v>43643</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="15">
         <v>43644</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="15">
         <v>43645</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="15">
         <v>43646</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2131,242 +2131,242 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>43647</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>43648</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="3"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>43649</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="1"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>43650</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="6">
         <v>43639</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="6">
         <v>43639</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="6">
         <v>43639</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>43640</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="19"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>43641</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="18"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>43642</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="20"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="15">
         <v>43643</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="15">
         <v>43644</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="15">
         <v>43645</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="15">
         <v>43646</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2393,239 +2393,239 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>43647</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>43648</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="3"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>43649</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="1"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>43650</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="6">
         <v>43639</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="6">
         <v>43639</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="7">
         <v>0.2</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>43640</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="19"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>43641</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="18"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>43642</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="20"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="15">
         <v>43643</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="15">
         <v>43644</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="15">
         <v>43645</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="15">
         <v>43646</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2652,240 +2652,240 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>43647</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>43648</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="3"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>43649</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="1"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>43650</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="6">
         <v>43639</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
         <v>43639</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="7">
         <v>0.2</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>43640</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="19"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>43641</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="18"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>43642</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="20"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="15">
         <v>43643</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="15">
         <v>43644</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="15">
         <v>43645</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="15">
         <v>43646</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2912,236 +2912,236 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>43647</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>43648</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="3"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>43649</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="1"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>43650</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="6">
         <v>43639</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="18"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>43640</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="19"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>43641</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="18"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>43642</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="20"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="15">
         <v>43643</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="15">
         <v>43644</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="15">
         <v>43645</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="15">
         <v>43646</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3168,240 +3168,240 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>43647</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>43648</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="3"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>43649</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="1"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>43650</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="6">
         <v>43639</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
         <v>43639</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="7">
         <v>0.2</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>43640</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="19"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>43641</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="18"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>43642</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="20"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="15">
         <v>43643</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="15">
         <v>43644</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="15">
         <v>43645</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="15">
         <v>43646</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3428,236 +3428,236 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>43647</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>43648</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="3"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>43649</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="1"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>43650</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="6">
         <v>43639</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="18"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>43640</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="19"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>43641</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="18"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>43642</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="20"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="15">
         <v>43643</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="15">
         <v>43644</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="15">
         <v>43645</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="15">
         <v>43646</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/编码进度表—周青山 .xlsx
+++ b/编码进度表—周青山 .xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\hgkj_02\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8FFE73-50F7-4927-91DE-EE806ABE8518}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1680" windowWidth="21600" windowHeight="11385" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="周青山 " sheetId="11" r:id="rId1"/>
@@ -29,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="24">
-  <si>
-    <t>进度控制表-旅游网的设计与实现</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="26">
   <si>
     <t>整体模块</t>
   </si>
@@ -58,56 +49,81 @@
     <t>备注</t>
   </si>
   <si>
-    <t>后台</t>
-  </si>
-  <si>
     <t>管理员登录退出系统</t>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>旅游线路类型增删改查</t>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>旅游线路增删改查</t>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>团购信息改查</t>
-  </si>
-  <si>
-    <t>前台</t>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>用户登录注册</t>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>旅游线路分类展示</t>
-  </si>
-  <si>
-    <t>j</t>
   </si>
   <si>
     <t>旅游线路展示</t>
   </si>
   <si>
     <t>团购页面按开团时间分页显示</t>
-  </si>
-  <si>
-    <t>添加查看删除</t>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>填写出游人员的相关信息</t>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>确认订单结算</t>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>查看删除历史订单</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度控制表-旅游网的设计与实现</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车添加查看删除</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车添加查看删除</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车添加查看删除</t>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -118,6 +134,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -125,6 +142,7 @@
       <sz val="26"/>
       <color indexed="8"/>
       <name val="隶书"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -132,32 +150,14 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -165,38 +165,22 @@
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color indexed="54"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -204,6 +188,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -212,12 +197,7 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -225,24 +205,50 @@
       <sz val="13"/>
       <color indexed="54"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color indexed="54"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -250,30 +256,79 @@
       <sz val="11"/>
       <color indexed="23"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="17">
@@ -291,7 +346,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,13 +358,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,13 +382,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,13 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,21 +476,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="23"/>
       </left>
       <right style="thin">
@@ -452,20 +492,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thick">
         <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,7 +526,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
         <color indexed="49"/>
       </bottom>
       <diagonal/>
@@ -541,85 +581,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -627,47 +682,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="13" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,51 +738,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
-    <cellStyle name="20% - 着色 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="40% - 着色 4" xfId="10" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="40% - 着色 5" xfId="12" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="60% - 着色 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="标题 1 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="标题 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="标题 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="标题 4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="标题 5" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="差 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="20% - 着色 5" xfId="4"/>
+    <cellStyle name="40% - 着色 4" xfId="7"/>
+    <cellStyle name="40% - 着色 5" xfId="9"/>
+    <cellStyle name="60% - 着色 2" xfId="2"/>
+    <cellStyle name="标题 1 2" xfId="3"/>
+    <cellStyle name="标题 2 2" xfId="11"/>
+    <cellStyle name="标题 3 2" xfId="12"/>
+    <cellStyle name="标题 4 2" xfId="13"/>
+    <cellStyle name="标题 5" xfId="14"/>
+    <cellStyle name="差 2" xfId="15"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="好 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="汇总 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="计算 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="检查单元格 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="解释性文本 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="警告文本 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="链接单元格 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="适中 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="输出 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="输入 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="着色 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="着色 5" xfId="11" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="注释 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="常规 2" xfId="16"/>
+    <cellStyle name="好 2" xfId="17"/>
+    <cellStyle name="汇总 2" xfId="18"/>
+    <cellStyle name="计算 2" xfId="1"/>
+    <cellStyle name="检查单元格 2" xfId="19"/>
+    <cellStyle name="解释性文本 2" xfId="20"/>
+    <cellStyle name="警告文本 2" xfId="21"/>
+    <cellStyle name="链接单元格 2" xfId="22"/>
+    <cellStyle name="适中 2" xfId="10"/>
+    <cellStyle name="输出 2" xfId="6"/>
+    <cellStyle name="输入 2" xfId="23"/>
+    <cellStyle name="着色 1" xfId="5"/>
+    <cellStyle name="着色 5" xfId="8"/>
+    <cellStyle name="注释 2" xfId="24"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1055,11 +1113,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1076,49 +1134,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="6">
         <v>43647</v>
@@ -1130,9 +1188,9 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6">
         <v>43648</v>
@@ -1141,12 +1199,12 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6">
         <v>43649</v>
@@ -1155,40 +1213,40 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="23"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12">
         <v>43650</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="23"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="23"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>14</v>
+      <c r="A8" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12">
         <v>43639</v>
       </c>
       <c r="D8" s="6"/>
@@ -1199,17 +1257,17 @@
         <v>0.8</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="12"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6">
         <v>43640</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="6">
         <v>43640</v>
       </c>
@@ -1217,122 +1275,126 @@
         <v>0.8</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="13" t="s">
-        <v>17</v>
+      <c r="H9" s="19" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6">
         <v>43641</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="6">
+        <v>43641</v>
+      </c>
       <c r="F10" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12">
+        <v>43642</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="6">
+        <v>43642</v>
+      </c>
+      <c r="F11" s="7">
         <v>0.5</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6">
-        <v>43642</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7">
-        <v>0.2</v>
-      </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="15">
+        <v>24</v>
+      </c>
+      <c r="C12" s="18">
         <v>43643</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="15">
+        <v>16</v>
+      </c>
+      <c r="C13" s="18">
         <v>43644</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="15">
+        <v>17</v>
+      </c>
+      <c r="C14" s="18">
         <v>43645</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="15">
+        <v>18</v>
+      </c>
+      <c r="C15" s="18">
         <v>43646</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+      <c r="A16" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A8:A15"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
   </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1349,49 +1411,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="6">
         <v>43647</v>
@@ -1403,9 +1465,9 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6">
         <v>43648</v>
@@ -1414,12 +1476,12 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6">
         <v>43649</v>
@@ -1428,167 +1490,167 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="23"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12">
         <v>43650</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="23"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="23"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>14</v>
+      <c r="A8" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12">
         <v>43639</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="12"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6">
         <v>43640</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6">
         <v>43641</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="12"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12">
         <v>43642</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="15">
+        <v>25</v>
+      </c>
+      <c r="C12" s="18">
         <v>43643</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="15">
+        <v>16</v>
+      </c>
+      <c r="C13" s="18">
         <v>43644</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="15">
+        <v>17</v>
+      </c>
+      <c r="C14" s="18">
         <v>43645</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="15">
+        <v>18</v>
+      </c>
+      <c r="C15" s="18">
         <v>43646</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A8:A15"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:A15"/>
   </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1605,49 +1667,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="6">
         <v>43647</v>
@@ -1659,9 +1721,9 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6">
         <v>43648</v>
@@ -1670,12 +1732,12 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6">
         <v>43649</v>
@@ -1684,40 +1746,40 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="23"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12">
         <v>43650</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="23"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="23"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>14</v>
+      <c r="A8" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12">
         <v>43639</v>
       </c>
       <c r="D8" s="6">
@@ -1730,127 +1792,115 @@
         <v>1</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="12"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6">
         <v>43640</v>
       </c>
-      <c r="D9" s="6">
-        <v>43640</v>
-      </c>
-      <c r="E9" s="6">
-        <v>43640</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0.9</v>
-      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6">
         <v>43641</v>
       </c>
-      <c r="D10" s="6">
-        <v>43641</v>
-      </c>
-      <c r="E10" s="6">
-        <v>43641</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0.9</v>
-      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="12"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12">
         <v>43642</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="15">
+        <v>24</v>
+      </c>
+      <c r="C12" s="18">
         <v>43643</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="15">
+        <v>16</v>
+      </c>
+      <c r="C13" s="18">
         <v>43644</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="15">
+        <v>17</v>
+      </c>
+      <c r="C14" s="18">
         <v>43645</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="15">
+        <v>18</v>
+      </c>
+      <c r="C15" s="18">
         <v>43646</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A8:A15"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
   </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -1858,11 +1908,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1879,49 +1929,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="6">
         <v>43647</v>
@@ -1933,9 +1983,9 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6">
         <v>43648</v>
@@ -1944,12 +1994,12 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6">
         <v>43649</v>
@@ -1958,40 +2008,40 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="23"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12">
         <v>43650</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="23"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="23"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>14</v>
+      <c r="A8" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12">
         <v>43639</v>
       </c>
       <c r="D8" s="6"/>
@@ -1999,134 +2049,130 @@
         <v>43639</v>
       </c>
       <c r="F8" s="7">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="12"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6">
         <v>43640</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6">
-        <v>43640</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0.8</v>
-      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6">
         <v>43641</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="12"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12">
         <v>43642</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="15">
+        <v>24</v>
+      </c>
+      <c r="C12" s="18">
         <v>43643</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="15">
+        <v>16</v>
+      </c>
+      <c r="C13" s="18">
         <v>43644</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="15">
+        <v>17</v>
+      </c>
+      <c r="C14" s="18">
         <v>43645</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="15">
+        <v>18</v>
+      </c>
+      <c r="C15" s="18">
         <v>43646</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="A3:A6"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="A8:A15"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
   </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:F8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2143,49 +2189,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="6">
         <v>43647</v>
@@ -2197,9 +2243,9 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6">
         <v>43648</v>
@@ -2208,12 +2254,12 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6">
         <v>43649</v>
@@ -2222,40 +2268,40 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="23"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12">
         <v>43650</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="23"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="23"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>14</v>
+      <c r="A8" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12">
         <v>43639</v>
       </c>
       <c r="D8" s="6">
@@ -2268,127 +2314,127 @@
         <v>1</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="12"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6">
         <v>43640</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6">
         <v>43641</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="12"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12">
         <v>43642</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="15">
+        <v>24</v>
+      </c>
+      <c r="C12" s="18">
         <v>43643</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="15">
+        <v>16</v>
+      </c>
+      <c r="C13" s="18">
         <v>43644</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="15">
+        <v>17</v>
+      </c>
+      <c r="C14" s="18">
         <v>43645</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="15">
+        <v>18</v>
+      </c>
+      <c r="C15" s="18">
         <v>43646</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A8:A15"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
   </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2405,49 +2451,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="6">
         <v>43647</v>
@@ -2459,9 +2505,9 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6">
         <v>43648</v>
@@ -2470,12 +2516,12 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6">
         <v>43649</v>
@@ -2484,40 +2530,40 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="23"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12">
         <v>43650</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="23"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="23"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>14</v>
+      <c r="A8" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12">
         <v>43639</v>
       </c>
       <c r="E8" s="6">
@@ -2527,127 +2573,127 @@
         <v>0.2</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="12"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6">
         <v>43640</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6">
         <v>43641</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="12"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12">
         <v>43642</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="15">
+        <v>23</v>
+      </c>
+      <c r="C12" s="18">
         <v>43643</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="15">
+        <v>16</v>
+      </c>
+      <c r="C13" s="18">
         <v>43644</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="15">
+        <v>17</v>
+      </c>
+      <c r="C14" s="18">
         <v>43645</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="15">
+        <v>18</v>
+      </c>
+      <c r="C15" s="18">
         <v>43646</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A8:A15"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:A15"/>
   </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2664,49 +2710,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="6">
         <v>43647</v>
@@ -2718,9 +2764,9 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6">
         <v>43648</v>
@@ -2729,12 +2775,12 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6">
         <v>43649</v>
@@ -2743,40 +2789,40 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="23"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12">
         <v>43650</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="23"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="23"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>14</v>
+      <c r="A8" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12">
         <v>43639</v>
       </c>
       <c r="D8" s="6"/>
@@ -2787,127 +2833,127 @@
         <v>0.2</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="12"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6">
         <v>43640</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6">
         <v>43641</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="12"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12">
         <v>43642</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="15">
+        <v>24</v>
+      </c>
+      <c r="C12" s="18">
         <v>43643</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="15">
+        <v>16</v>
+      </c>
+      <c r="C13" s="18">
         <v>43644</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="15">
+        <v>17</v>
+      </c>
+      <c r="C14" s="18">
         <v>43645</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="15">
+        <v>18</v>
+      </c>
+      <c r="C15" s="18">
         <v>43646</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A8:A15"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:A15"/>
   </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2924,49 +2970,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="6">
         <v>43647</v>
@@ -2978,9 +3024,9 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6">
         <v>43648</v>
@@ -2989,12 +3035,12 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6">
         <v>43649</v>
@@ -3003,167 +3049,167 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="23"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12">
         <v>43650</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="23"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="23"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>14</v>
+      <c r="A8" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12">
         <v>43639</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="12"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6">
         <v>43640</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6">
         <v>43641</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="12"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12">
         <v>43642</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="15">
+        <v>24</v>
+      </c>
+      <c r="C12" s="18">
         <v>43643</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="15">
+        <v>16</v>
+      </c>
+      <c r="C13" s="18">
         <v>43644</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="15">
+        <v>17</v>
+      </c>
+      <c r="C14" s="18">
         <v>43645</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="15">
+        <v>18</v>
+      </c>
+      <c r="C15" s="18">
         <v>43646</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A8:A15"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:A15"/>
   </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3180,49 +3226,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="6">
         <v>43647</v>
@@ -3234,9 +3280,9 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6">
         <v>43648</v>
@@ -3245,12 +3291,12 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6">
         <v>43649</v>
@@ -3259,40 +3305,40 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="23"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12">
         <v>43650</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="23"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="23"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>14</v>
+      <c r="A8" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12">
         <v>43639</v>
       </c>
       <c r="D8" s="6"/>
@@ -3303,127 +3349,127 @@
         <v>0.2</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="12"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6">
         <v>43640</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6">
         <v>43641</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="12"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12">
         <v>43642</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="15">
+        <v>24</v>
+      </c>
+      <c r="C12" s="18">
         <v>43643</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="15">
+        <v>16</v>
+      </c>
+      <c r="C13" s="18">
         <v>43644</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="15">
+        <v>17</v>
+      </c>
+      <c r="C14" s="18">
         <v>43645</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="15">
+        <v>18</v>
+      </c>
+      <c r="C15" s="18">
         <v>43646</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A8:A15"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:A15"/>
   </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3440,49 +3486,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="6">
         <v>43647</v>
@@ -3494,9 +3540,9 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6">
         <v>43648</v>
@@ -3505,12 +3551,12 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6">
         <v>43649</v>
@@ -3519,157 +3565,157 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="23"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12">
         <v>43650</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="23"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="23"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>14</v>
+      <c r="A8" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12">
         <v>43639</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="12"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6">
         <v>43640</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6">
         <v>43641</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="12"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12">
         <v>43642</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="15">
+        <v>23</v>
+      </c>
+      <c r="C12" s="18">
         <v>43643</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="15">
+        <v>16</v>
+      </c>
+      <c r="C13" s="18">
         <v>43644</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="15">
+        <v>17</v>
+      </c>
+      <c r="C14" s="18">
         <v>43645</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="15">
+        <v>18</v>
+      </c>
+      <c r="C15" s="18">
         <v>43646</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A8:A15"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:A15"/>
   </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/编码进度表—周青山 .xlsx
+++ b/编码进度表—周青山 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="周青山 " sheetId="11" r:id="rId1"/>
@@ -674,7 +674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -746,6 +746,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1116,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1310,7 +1313,7 @@
         <v>43642</v>
       </c>
       <c r="F11" s="7">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
@@ -1324,8 +1327,12 @@
         <v>43643</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="E12" s="18">
+        <v>43643</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0.3</v>
+      </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
@@ -2433,8 +2440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2570,7 +2577,7 @@
         <v>43639</v>
       </c>
       <c r="F8" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="14"/>
@@ -2584,7 +2591,9 @@
         <v>43640</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6">
+        <v>43640</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
@@ -2598,7 +2607,9 @@
         <v>43641</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6">
+        <v>43641</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
       <c r="H10" s="14"/>
@@ -2612,7 +2623,9 @@
         <v>43642</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12">
+        <v>43642</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
@@ -2626,7 +2639,9 @@
         <v>43643</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="E12" s="18">
+        <v>43643</v>
+      </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
